--- a/qc.xlsx
+++ b/qc.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="505">
   <si>
     <t>記錄表單</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2032,6 +2032,10 @@
   </si>
   <si>
     <t>fuck mother</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet xxx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3219,38 +3223,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3258,107 +3346,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9604,7 +9608,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -9644,12 +9648,12 @@
       <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="198"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="33" t="s">
         <v>12</v>
       </c>
@@ -9676,18 +9680,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="27.6">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="165">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="10" t="s">
         <v>135</v>
       </c>
@@ -9706,29 +9710,29 @@
       <c r="L3" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="194" t="s">
+      <c r="M3" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="156" t="s">
+      <c r="N3" s="187" t="s">
         <v>136</v>
       </c>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A4" s="159"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="157"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="178"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="13.8">
@@ -9766,19 +9770,19 @@
       <c r="O6" s="125"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="161">
+      <c r="B7" s="165">
         <v>2</v>
       </c>
-      <c r="C7" s="185" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="185" t="s">
+      <c r="C7" s="186" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="156"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="186" t="s">
         <v>138</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -9804,13 +9808,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A8" s="160"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="190"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="189"/>
       <c r="H8" s="12" t="s">
         <v>8</v>
       </c>
@@ -9826,18 +9830,18 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="161">
+      <c r="B9" s="165">
         <v>3</v>
       </c>
-      <c r="C9" s="185" t="s">
+      <c r="C9" s="186" t="s">
         <v>264</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="175"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
       <c r="G9" s="10" t="s">
         <v>502</v>
       </c>
@@ -9864,12 +9868,12 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A10" s="159"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="178"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
       <c r="G10" s="12" t="s">
         <v>266</v>
       </c>
@@ -9890,12 +9894,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A11" s="159"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="178"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="12" t="s">
         <v>265</v>
       </c>
@@ -9912,18 +9916,18 @@
       <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="165">
         <v>4</v>
       </c>
-      <c r="C12" s="185" t="s">
+      <c r="C12" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="175"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
       <c r="G12" s="10" t="s">
         <v>125</v>
       </c>
@@ -9950,12 +9954,12 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A13" s="159"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="178"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
       <c r="G13" s="12" t="s">
         <v>78</v>
       </c>
@@ -9976,12 +9980,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A14" s="159"/>
-      <c r="B14" s="162"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="166"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="178"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="12" t="s">
         <v>139</v>
       </c>
@@ -9996,18 +10000,18 @@
       <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="161">
+      <c r="B15" s="165">
         <v>5</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="175"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="10" t="s">
         <v>23</v>
       </c>
@@ -10034,12 +10038,12 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A16" s="159"/>
-      <c r="B16" s="162"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="178"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="12" t="s">
         <v>86</v>
       </c>
@@ -10060,12 +10064,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A17" s="159"/>
-      <c r="B17" s="162"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="166"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="178"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="74"/>
@@ -10078,10 +10082,10 @@
       <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="161">
+      <c r="B18" s="165">
         <v>6</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -10116,8 +10120,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A19" s="159"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="12"/>
       <c r="D19" s="71"/>
       <c r="E19" s="72"/>
@@ -10142,8 +10146,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A20" s="159"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="12"/>
       <c r="D20" s="71"/>
       <c r="E20" s="72"/>
@@ -10162,8 +10166,8 @@
       <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A21" s="159"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="12"/>
       <c r="D21" s="71"/>
       <c r="E21" s="72"/>
@@ -10191,7 +10195,7 @@
       <c r="G22" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="185" t="s">
+      <c r="H22" s="186" t="s">
         <v>155</v>
       </c>
       <c r="I22" s="181" t="s">
@@ -10214,25 +10218,25 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A23" s="188" t="s">
+      <c r="A23" s="171" t="s">
         <v>267</v>
       </c>
-      <c r="B23" s="162">
+      <c r="B23" s="166">
         <v>7</v>
       </c>
       <c r="C23" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="176"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="178"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="161"/>
       <c r="G23" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H23" s="183"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="186"/>
-      <c r="K23" s="186"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
       <c r="L23" s="104" t="s">
         <v>225</v>
       </c>
@@ -10244,21 +10248,21 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A24" s="188"/>
-      <c r="B24" s="162"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="178"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="161"/>
       <c r="G24" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H24" s="183"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="186"/>
-      <c r="K24" s="186"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
       <c r="L24" s="14" t="s">
         <v>232</v>
       </c>
@@ -10266,199 +10270,199 @@
       <c r="N24" s="106"/>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A25" s="188"/>
-      <c r="B25" s="162"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D25" s="176"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="178"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="161"/>
       <c r="G25" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="H25" s="183"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="186"/>
-      <c r="K25" s="186"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
       <c r="L25" s="14"/>
       <c r="M25" s="106"/>
       <c r="N25" s="106"/>
     </row>
     <row r="26" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A26" s="188"/>
-      <c r="B26" s="162"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="166"/>
       <c r="C26" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="176"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="178"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161"/>
       <c r="G26" s="125" t="s">
         <v>281</v>
       </c>
-      <c r="H26" s="183"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="186"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
       <c r="L26" s="14"/>
       <c r="M26" s="106"/>
       <c r="N26" s="106"/>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A27" s="188"/>
-      <c r="B27" s="162"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="166"/>
       <c r="C27" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="178"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="125" t="s">
         <v>282</v>
       </c>
-      <c r="H27" s="183"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="186"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
       <c r="L27" s="14"/>
       <c r="M27" s="106"/>
       <c r="N27" s="106"/>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A28" s="188"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D28" s="176"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="178"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H28" s="183"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
       <c r="L28" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="M28" s="157"/>
+      <c r="M28" s="178"/>
       <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A29" s="188"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="171"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="178"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
       <c r="G29" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="H29" s="183"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="186"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
       <c r="L29" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="M29" s="189"/>
+      <c r="M29" s="188"/>
       <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A30" s="188"/>
-      <c r="B30" s="162"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D30" s="176"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="178"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="161"/>
       <c r="G30" s="125" t="s">
         <v>295</v>
       </c>
-      <c r="H30" s="183"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="186"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
       <c r="L30" s="106"/>
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A31" s="188"/>
-      <c r="B31" s="162"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="178"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="161"/>
       <c r="G31" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="H31" s="183"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="186"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
       <c r="L31" s="106"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="178"/>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A32" s="188"/>
-      <c r="B32" s="162"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D32" s="176"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="178"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="161"/>
       <c r="G32" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="H32" s="183"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
       <c r="L32" s="104"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="189"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="188"/>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A33" s="188"/>
-      <c r="B33" s="162"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="176"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="178"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="161"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
       <c r="L33" s="104"/>
       <c r="M33" s="142"/>
       <c r="N33" s="26"/>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="161">
+      <c r="B34" s="165">
         <v>8</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="175"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="158"/>
       <c r="G34" s="10" t="s">
         <v>23</v>
       </c>
@@ -10485,12 +10489,12 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A35" s="159"/>
-      <c r="B35" s="162"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="166"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="178"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="161"/>
       <c r="G35" s="12" t="s">
         <v>157</v>
       </c>
@@ -10507,12 +10511,12 @@
       </c>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="162"/>
+      <c r="A36" s="163"/>
+      <c r="B36" s="166"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="178"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="161"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
       <c r="I36" s="24"/>
@@ -10523,18 +10527,18 @@
       <c r="N36" s="27"/>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A37" s="158" t="s">
+      <c r="A37" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="161">
+      <c r="B37" s="165">
         <v>9</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="173"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="175"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="158"/>
       <c r="G37" s="10" t="s">
         <v>167</v>
       </c>
@@ -10561,12 +10565,12 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A38" s="159"/>
-      <c r="B38" s="162"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="178"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="161"/>
       <c r="G38" s="3" t="s">
         <v>166</v>
       </c>
@@ -10587,12 +10591,12 @@
       </c>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="162"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="177"/>
-      <c r="F39" s="178"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="161"/>
       <c r="G39" s="12" t="s">
         <v>234</v>
       </c>
@@ -10607,10 +10611,10 @@
       <c r="N39" s="27"/>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A40" s="158" t="s">
+      <c r="A40" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="161">
+      <c r="B40" s="165">
         <v>10</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -10645,8 +10649,8 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="162"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="166"/>
       <c r="C41" s="12"/>
       <c r="D41" s="94"/>
       <c r="E41" s="95"/>
@@ -10671,8 +10675,8 @@
       </c>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A42" s="160"/>
-      <c r="B42" s="163"/>
+      <c r="A42" s="164"/>
+      <c r="B42" s="167"/>
       <c r="C42" s="15"/>
       <c r="D42" s="97"/>
       <c r="E42" s="98"/>
@@ -10689,10 +10693,10 @@
       <c r="N42" s="27"/>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A43" s="158" t="s">
+      <c r="A43" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="161">
+      <c r="B43" s="165">
         <v>11</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -10727,8 +10731,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A44" s="159"/>
-      <c r="B44" s="162"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="166"/>
       <c r="C44" s="12"/>
       <c r="D44" s="94"/>
       <c r="E44" s="95"/>
@@ -10753,8 +10757,8 @@
       </c>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A45" s="160"/>
-      <c r="B45" s="163"/>
+      <c r="A45" s="164"/>
+      <c r="B45" s="167"/>
       <c r="C45" s="15"/>
       <c r="D45" s="97"/>
       <c r="E45" s="98"/>
@@ -10774,7 +10778,7 @@
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
       <c r="A46" s="111"/>
-      <c r="B46" s="161">
+      <c r="B46" s="165">
         <v>12</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -10786,16 +10790,16 @@
       <c r="G46" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H46" s="185" t="s">
+      <c r="H46" s="186" t="s">
         <v>154</v>
       </c>
-      <c r="I46" s="161" t="s">
+      <c r="I46" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="J46" s="161" t="s">
+      <c r="J46" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="K46" s="161" t="s">
+      <c r="K46" s="165" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="20" t="s">
@@ -10810,7 +10814,7 @@
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A47" s="112"/>
-      <c r="B47" s="162"/>
+      <c r="B47" s="166"/>
       <c r="C47" s="12" t="s">
         <v>189</v>
       </c>
@@ -10820,10 +10824,10 @@
       <c r="G47" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H47" s="183"/>
-      <c r="I47" s="162"/>
-      <c r="J47" s="184"/>
-      <c r="K47" s="184"/>
+      <c r="H47" s="180"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="190"/>
+      <c r="K47" s="190"/>
       <c r="L47" s="21" t="s">
         <v>89</v>
       </c>
@@ -10836,7 +10840,7 @@
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A48" s="112"/>
-      <c r="B48" s="162"/>
+      <c r="B48" s="166"/>
       <c r="C48" s="3" t="s">
         <v>285</v>
       </c>
@@ -10849,9 +10853,9 @@
       <c r="H48" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I48" s="162"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="184"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="190"/>
+      <c r="K48" s="190"/>
       <c r="L48" s="21" t="s">
         <v>172</v>
       </c>
@@ -10860,7 +10864,7 @@
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A49" s="112"/>
-      <c r="B49" s="162"/>
+      <c r="B49" s="166"/>
       <c r="C49" s="3" t="s">
         <v>286</v>
       </c>
@@ -10873,9 +10877,9 @@
       <c r="H49" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I49" s="162"/>
-      <c r="J49" s="184"/>
-      <c r="K49" s="184"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="190"/>
+      <c r="K49" s="190"/>
       <c r="L49" s="14" t="s">
         <v>228</v>
       </c>
@@ -10884,7 +10888,7 @@
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A50" s="112"/>
-      <c r="B50" s="162"/>
+      <c r="B50" s="166"/>
       <c r="C50" s="12" t="s">
         <v>287</v>
       </c>
@@ -10895,9 +10899,9 @@
         <v>297</v>
       </c>
       <c r="H50" s="106"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="184"/>
-      <c r="K50" s="184"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="190"/>
+      <c r="K50" s="190"/>
       <c r="L50" s="14" t="s">
         <v>229</v>
       </c>
@@ -10908,20 +10912,20 @@
       <c r="A51" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="162"/>
+      <c r="B51" s="166"/>
       <c r="C51" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
       <c r="G51" s="12" t="s">
         <v>299</v>
       </c>
       <c r="H51" s="106"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="184"/>
-      <c r="K51" s="184"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="190"/>
+      <c r="K51" s="190"/>
       <c r="L51" s="14" t="s">
         <v>230</v>
       </c>
@@ -10929,21 +10933,21 @@
       <c r="N51" s="26"/>
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A52" s="188"/>
-      <c r="B52" s="162"/>
+      <c r="A52" s="171"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D52" s="165"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="165"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="169"/>
+      <c r="F52" s="169"/>
       <c r="G52" s="12" t="s">
         <v>300</v>
       </c>
       <c r="H52" s="106"/>
-      <c r="I52" s="162"/>
-      <c r="J52" s="184"/>
-      <c r="K52" s="184"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="190"/>
+      <c r="K52" s="190"/>
       <c r="L52" s="106" t="s">
         <v>187</v>
       </c>
@@ -10951,100 +10955,100 @@
       <c r="N52" s="26"/>
     </row>
     <row r="53" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A53" s="188"/>
-      <c r="B53" s="162"/>
+      <c r="A53" s="171"/>
+      <c r="B53" s="166"/>
       <c r="C53" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D53" s="165"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="165"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
       <c r="G53" s="12" t="s">
         <v>301</v>
       </c>
       <c r="H53" s="106"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="184"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="190"/>
+      <c r="K53" s="190"/>
       <c r="L53" s="106"/>
-      <c r="M53" s="157"/>
+      <c r="M53" s="178"/>
       <c r="N53" s="26"/>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A54" s="144"/>
-      <c r="B54" s="162"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
       <c r="G54" s="12" t="s">
         <v>302</v>
       </c>
       <c r="H54" s="106"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="184"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="190"/>
+      <c r="K54" s="190"/>
       <c r="L54" s="106"/>
-      <c r="M54" s="157"/>
+      <c r="M54" s="178"/>
       <c r="N54" s="26"/>
     </row>
     <row r="55" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A55" s="144"/>
-      <c r="B55" s="162"/>
+      <c r="B55" s="166"/>
       <c r="C55" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
       <c r="G55" s="12" t="s">
         <v>303</v>
       </c>
       <c r="H55" s="106"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="184"/>
-      <c r="K55" s="184"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="190"/>
       <c r="L55" s="106"/>
-      <c r="M55" s="157"/>
+      <c r="M55" s="178"/>
       <c r="N55" s="26"/>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A56" s="144"/>
-      <c r="B56" s="162"/>
+      <c r="B56" s="166"/>
       <c r="C56" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
+      <c r="D56" s="169"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
       <c r="G56" s="12" t="s">
         <v>304</v>
       </c>
       <c r="H56" s="106"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="184"/>
-      <c r="K56" s="184"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="190"/>
+      <c r="K56" s="190"/>
       <c r="L56" s="106"/>
-      <c r="M56" s="157"/>
+      <c r="M56" s="178"/>
       <c r="N56" s="26"/>
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
       <c r="A57" s="144"/>
-      <c r="B57" s="162"/>
+      <c r="B57" s="166"/>
       <c r="C57" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
       <c r="H57" s="106"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="184"/>
-      <c r="K57" s="184"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="190"/>
+      <c r="K57" s="190"/>
       <c r="L57" s="106"/>
-      <c r="M57" s="157"/>
+      <c r="M57" s="178"/>
       <c r="N57" s="26"/>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
@@ -11059,7 +11063,7 @@
       <c r="G58" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H58" s="185" t="s">
+      <c r="H58" s="186" t="s">
         <v>90</v>
       </c>
       <c r="I58" s="181" t="s">
@@ -11082,10 +11086,10 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A59" s="188" t="s">
+      <c r="A59" s="171" t="s">
         <v>240</v>
       </c>
-      <c r="B59" s="162">
+      <c r="B59" s="166">
         <v>13</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -11097,10 +11101,10 @@
       <c r="G59" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H59" s="183"/>
-      <c r="I59" s="186"/>
-      <c r="J59" s="186"/>
-      <c r="K59" s="186"/>
+      <c r="H59" s="180"/>
+      <c r="I59" s="185"/>
+      <c r="J59" s="185"/>
+      <c r="K59" s="185"/>
       <c r="L59" s="125" t="s">
         <v>197</v>
       </c>
@@ -11112,8 +11116,8 @@
       </c>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A60" s="159"/>
-      <c r="B60" s="162"/>
+      <c r="A60" s="163"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="3" t="s">
         <v>307</v>
       </c>
@@ -11126,9 +11130,9 @@
       <c r="H60" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I60" s="186"/>
-      <c r="J60" s="186"/>
-      <c r="K60" s="186"/>
+      <c r="I60" s="185"/>
+      <c r="J60" s="185"/>
+      <c r="K60" s="185"/>
       <c r="L60" s="21" t="s">
         <v>89</v>
       </c>
@@ -11136,8 +11140,8 @@
       <c r="N60" s="146"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A61" s="159"/>
-      <c r="B61" s="162"/>
+      <c r="A61" s="163"/>
+      <c r="B61" s="166"/>
       <c r="C61" s="3" t="s">
         <v>305</v>
       </c>
@@ -11150,60 +11154,60 @@
       <c r="H61" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I61" s="186"/>
-      <c r="J61" s="186"/>
-      <c r="K61" s="186"/>
+      <c r="I61" s="185"/>
+      <c r="J61" s="185"/>
+      <c r="K61" s="185"/>
       <c r="L61" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="M61" s="157"/>
+      <c r="M61" s="178"/>
       <c r="N61" s="26"/>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A62" s="159"/>
-      <c r="B62" s="162"/>
+      <c r="A62" s="163"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="12" t="s">
         <v>201</v>
       </c>
       <c r="D62" s="79"/>
       <c r="E62" s="80"/>
       <c r="F62" s="81"/>
-      <c r="G62" s="183" t="s">
+      <c r="G62" s="180" t="s">
         <v>310</v>
       </c>
       <c r="H62" s="125"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="186"/>
-      <c r="K62" s="186"/>
+      <c r="I62" s="185"/>
+      <c r="J62" s="185"/>
+      <c r="K62" s="185"/>
       <c r="L62" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="M62" s="157"/>
+      <c r="M62" s="178"/>
       <c r="N62" s="26"/>
     </row>
     <row r="63" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A63" s="159"/>
-      <c r="B63" s="162"/>
+      <c r="A63" s="163"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="12" t="s">
         <v>202</v>
       </c>
       <c r="D63" s="79"/>
       <c r="E63" s="80"/>
       <c r="F63" s="81"/>
-      <c r="G63" s="183"/>
+      <c r="G63" s="180"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="186"/>
-      <c r="J63" s="186"/>
-      <c r="K63" s="186"/>
+      <c r="I63" s="185"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="185"/>
       <c r="L63" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="M63" s="157"/>
+      <c r="M63" s="178"/>
       <c r="N63" s="26"/>
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A64" s="159"/>
-      <c r="B64" s="162"/>
+      <c r="A64" s="163"/>
+      <c r="B64" s="166"/>
       <c r="D64" s="79"/>
       <c r="E64" s="80"/>
       <c r="F64" s="81"/>
@@ -11215,22 +11219,22 @@
       <c r="L64" s="147" t="s">
         <v>199</v>
       </c>
-      <c r="M64" s="187"/>
+      <c r="M64" s="179"/>
       <c r="N64" s="27"/>
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A65" s="158" t="s">
+      <c r="A65" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="161">
+      <c r="B65" s="165">
         <v>14</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D65" s="173"/>
-      <c r="E65" s="174"/>
-      <c r="F65" s="175"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="158"/>
       <c r="G65" s="10" t="s">
         <v>17</v>
       </c>
@@ -11249,20 +11253,20 @@
       <c r="L65" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="M65" s="156" t="s">
+      <c r="M65" s="187" t="s">
         <v>243</v>
       </c>
-      <c r="N65" s="156" t="s">
+      <c r="N65" s="187" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A66" s="159"/>
-      <c r="B66" s="162"/>
+      <c r="A66" s="163"/>
+      <c r="B66" s="166"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="176"/>
-      <c r="E66" s="177"/>
-      <c r="F66" s="178"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="161"/>
       <c r="G66" s="12" t="s">
         <v>100</v>
       </c>
@@ -11273,16 +11277,16 @@
       <c r="L66" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
+      <c r="M66" s="178"/>
+      <c r="N66" s="178"/>
     </row>
     <row r="67" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A67" s="159"/>
-      <c r="B67" s="162"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="176"/>
-      <c r="E67" s="177"/>
-      <c r="F67" s="178"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="161"/>
       <c r="G67" s="12"/>
       <c r="H67" s="66"/>
       <c r="I67" s="56"/>
@@ -11291,16 +11295,16 @@
       <c r="L67" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="M67" s="157"/>
+      <c r="M67" s="178"/>
       <c r="N67" s="26"/>
     </row>
     <row r="68" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A68" s="160"/>
-      <c r="B68" s="163"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="167"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="191"/>
-      <c r="E68" s="192"/>
-      <c r="F68" s="193"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="174"/>
       <c r="G68" s="15"/>
       <c r="H68" s="17" t="s">
         <v>28</v>
@@ -11309,14 +11313,14 @@
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
       <c r="L68" s="19"/>
-      <c r="M68" s="187"/>
+      <c r="M68" s="179"/>
       <c r="N68" s="27"/>
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A69" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="161">
+      <c r="B69" s="165">
         <v>15</v>
       </c>
       <c r="C69" s="12" t="s">
@@ -11352,7 +11356,7 @@
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A70" s="59"/>
-      <c r="B70" s="162"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="12"/>
       <c r="D70" s="63"/>
       <c r="E70" s="64"/>
@@ -11374,7 +11378,7 @@
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1" thickBot="1">
       <c r="A71" s="59"/>
-      <c r="B71" s="163"/>
+      <c r="B71" s="167"/>
       <c r="C71" s="12"/>
       <c r="D71" s="63"/>
       <c r="E71" s="64"/>
@@ -11392,7 +11396,7 @@
       <c r="A72" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="161">
+      <c r="B72" s="165">
         <v>16</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -11428,12 +11432,12 @@
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A73" s="78"/>
-      <c r="B73" s="162"/>
+      <c r="B73" s="166"/>
       <c r="C73" s="12"/>
       <c r="D73" s="79"/>
       <c r="E73" s="80"/>
       <c r="F73" s="81"/>
-      <c r="G73" s="183" t="s">
+      <c r="G73" s="180" t="s">
         <v>216</v>
       </c>
       <c r="H73" s="66" t="s">
@@ -11450,12 +11454,12 @@
     </row>
     <row r="74" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A74" s="78"/>
-      <c r="B74" s="162"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="12"/>
       <c r="D74" s="79"/>
       <c r="E74" s="80"/>
       <c r="F74" s="81"/>
-      <c r="G74" s="183"/>
+      <c r="G74" s="180"/>
       <c r="H74" s="66"/>
       <c r="I74" s="77"/>
       <c r="J74" s="77"/>
@@ -11466,7 +11470,7 @@
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
       <c r="A75" s="59"/>
-      <c r="B75" s="163"/>
+      <c r="B75" s="167"/>
       <c r="C75" s="12"/>
       <c r="D75" s="63"/>
       <c r="E75" s="64"/>
@@ -11486,7 +11490,7 @@
       <c r="A76" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="161">
+      <c r="B76" s="165">
         <v>17</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -11522,7 +11526,7 @@
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
       <c r="A77" s="59"/>
-      <c r="B77" s="163"/>
+      <c r="B77" s="167"/>
       <c r="C77" s="12"/>
       <c r="D77" s="63"/>
       <c r="E77" s="64"/>
@@ -11541,18 +11545,18 @@
       </c>
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A78" s="158" t="s">
+      <c r="A78" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="161">
+      <c r="B78" s="165">
         <v>18</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D78" s="164"/>
-      <c r="E78" s="164"/>
-      <c r="F78" s="164"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
       <c r="G78" s="10" t="s">
         <v>221</v>
       </c>
@@ -11579,12 +11583,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A79" s="159"/>
-      <c r="B79" s="162"/>
+      <c r="A79" s="163"/>
+      <c r="B79" s="166"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12" t="s">
         <v>8</v>
@@ -11603,12 +11607,12 @@
       </c>
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A80" s="160"/>
-      <c r="B80" s="163"/>
+      <c r="A80" s="164"/>
+      <c r="B80" s="167"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="166"/>
-      <c r="E80" s="166"/>
-      <c r="F80" s="166"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="25"/>
@@ -11623,18 +11627,18 @@
       </c>
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A81" s="158" t="s">
+      <c r="A81" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="B81" s="161">
+      <c r="B81" s="165">
         <v>19</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D81" s="164"/>
-      <c r="E81" s="164"/>
-      <c r="F81" s="164"/>
+      <c r="D81" s="168"/>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
       <c r="G81" s="12" t="s">
         <v>250</v>
       </c>
@@ -11661,12 +11665,12 @@
       </c>
     </row>
     <row r="82" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A82" s="159"/>
-      <c r="B82" s="162"/>
+      <c r="A82" s="163"/>
+      <c r="B82" s="166"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="169"/>
       <c r="G82" s="12" t="s">
         <v>251</v>
       </c>
@@ -11687,12 +11691,12 @@
       </c>
     </row>
     <row r="83" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A83" s="160"/>
-      <c r="B83" s="163"/>
+      <c r="A83" s="164"/>
+      <c r="B83" s="167"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="166"/>
-      <c r="E83" s="166"/>
-      <c r="F83" s="166"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
       <c r="H83" s="15"/>
       <c r="I83" s="123"/>
       <c r="J83" s="123"/>
@@ -11706,18 +11710,18 @@
       </c>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A84" s="158" t="s">
+      <c r="A84" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="161">
+      <c r="B84" s="165">
         <v>20</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D84" s="173"/>
-      <c r="E84" s="174"/>
-      <c r="F84" s="175"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="157"/>
+      <c r="F84" s="158"/>
       <c r="G84" s="10" t="s">
         <v>260</v>
       </c>
@@ -11736,20 +11740,20 @@
       <c r="L84" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M84" s="156" t="s">
+      <c r="M84" s="187" t="s">
         <v>243</v>
       </c>
-      <c r="N84" s="156" t="s">
+      <c r="N84" s="187" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A85" s="159"/>
-      <c r="B85" s="162"/>
+      <c r="A85" s="163"/>
+      <c r="B85" s="166"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="177"/>
-      <c r="F85" s="178"/>
+      <c r="D85" s="159"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="161"/>
       <c r="G85" s="12" t="s">
         <v>261</v>
       </c>
@@ -11760,16 +11764,16 @@
       <c r="L85" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="M85" s="157"/>
-      <c r="N85" s="157"/>
+      <c r="M85" s="178"/>
+      <c r="N85" s="178"/>
     </row>
     <row r="86" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A86" s="159"/>
-      <c r="B86" s="162"/>
+      <c r="A86" s="163"/>
+      <c r="B86" s="166"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="177"/>
-      <c r="F86" s="178"/>
+      <c r="D86" s="159"/>
+      <c r="E86" s="160"/>
+      <c r="F86" s="161"/>
       <c r="G86" s="12" t="s">
         <v>262</v>
       </c>
@@ -11778,26 +11782,26 @@
       <c r="J86" s="121"/>
       <c r="K86" s="121"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="157"/>
+      <c r="M86" s="178"/>
       <c r="N86" s="26"/>
     </row>
     <row r="87" spans="1:14" ht="16.2" customHeight="1">
-      <c r="A87" s="167" t="s">
+      <c r="A87" s="195" t="s">
         <v>252</v>
       </c>
-      <c r="B87" s="167">
+      <c r="B87" s="195">
         <v>21</v>
       </c>
-      <c r="C87" s="169" t="s">
+      <c r="C87" s="193" t="s">
         <v>253</v>
       </c>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-      <c r="G87" s="169" t="s">
+      <c r="D87" s="197"/>
+      <c r="E87" s="197"/>
+      <c r="F87" s="197"/>
+      <c r="G87" s="193" t="s">
         <v>254</v>
       </c>
-      <c r="H87" s="169" t="s">
+      <c r="H87" s="193" t="s">
         <v>255</v>
       </c>
       <c r="I87" s="181" t="s">
@@ -11809,61 +11813,86 @@
       <c r="K87" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="L87" s="179" t="s">
+      <c r="L87" s="191" t="s">
         <v>257</v>
       </c>
-      <c r="M87" s="169" t="s">
+      <c r="M87" s="193" t="s">
         <v>258</v>
       </c>
-      <c r="N87" s="169" t="s">
+      <c r="N87" s="193" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A88" s="168"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="172"/>
-      <c r="F88" s="172"/>
-      <c r="G88" s="170"/>
-      <c r="H88" s="170"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="196"/>
+      <c r="C88" s="194"/>
+      <c r="D88" s="198"/>
+      <c r="E88" s="198"/>
+      <c r="F88" s="198"/>
+      <c r="G88" s="194"/>
+      <c r="H88" s="194"/>
       <c r="I88" s="182"/>
       <c r="J88" s="182"/>
       <c r="K88" s="182"/>
-      <c r="L88" s="180"/>
-      <c r="M88" s="170"/>
-      <c r="N88" s="170"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="194"/>
+      <c r="N88" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="D15:F17"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:F80"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="D65:F68"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="D9:F11"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:F39"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:F83"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:F88"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:F86"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="D51:F57"/>
+    <mergeCell ref="M53:M57"/>
+    <mergeCell ref="B46:B57"/>
+    <mergeCell ref="I46:I57"/>
+    <mergeCell ref="J46:J57"/>
+    <mergeCell ref="K46:K57"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I64"/>
+    <mergeCell ref="J58:J64"/>
+    <mergeCell ref="K58:K64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="D34:F36"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="D23:F33"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
@@ -11880,58 +11909,33 @@
     <mergeCell ref="D12:F14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="D34:F36"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="D23:F33"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="D51:F57"/>
-    <mergeCell ref="M53:M57"/>
-    <mergeCell ref="B46:B57"/>
-    <mergeCell ref="I46:I57"/>
-    <mergeCell ref="J46:J57"/>
-    <mergeCell ref="K46:K57"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I64"/>
-    <mergeCell ref="J58:J64"/>
-    <mergeCell ref="K58:K64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:F88"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D84:F86"/>
-    <mergeCell ref="M84:M86"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:F83"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:F39"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:F11"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:F80"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D65:F68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11985,12 +11989,12 @@
       <c r="B2" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="175" t="s">
         <v>316</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="198"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="177"/>
       <c r="G2" s="33" t="s">
         <v>317</v>
       </c>
@@ -12017,18 +12021,18 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="27.6">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="162" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="165">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="173"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="175"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="10" t="s">
         <v>326</v>
       </c>
@@ -12047,45 +12051,45 @@
       <c r="L3" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="M3" s="194" t="s">
+      <c r="M3" s="183" t="s">
         <v>329</v>
       </c>
-      <c r="N3" s="156" t="s">
+      <c r="N3" s="187" t="s">
         <v>330</v>
       </c>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="162"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="166"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="I4" s="143"/>
       <c r="J4" s="143"/>
       <c r="K4" s="143"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="157"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="178"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="162" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="165">
         <v>2</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="186" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="173"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="185" t="s">
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="186" t="s">
         <v>333</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -12111,13 +12115,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A6" s="160"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="190"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="189"/>
       <c r="H6" s="12" t="s">
         <v>339</v>
       </c>
@@ -12133,18 +12137,18 @@
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="162" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="161">
+      <c r="B7" s="165">
         <v>3</v>
       </c>
-      <c r="C7" s="185" t="s">
+      <c r="C7" s="186" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="175"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
       <c r="G7" s="10" t="s">
         <v>343</v>
       </c>
@@ -12171,12 +12175,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A8" s="159"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
       <c r="G8" s="12" t="s">
         <v>346</v>
       </c>
@@ -12197,12 +12201,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="166"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="178"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="143"/>
@@ -12217,18 +12221,18 @@
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="162" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="165">
         <v>4</v>
       </c>
-      <c r="C10" s="185" t="s">
+      <c r="C10" s="186" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="175"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
       <c r="G10" s="10" t="s">
         <v>353</v>
       </c>
@@ -12255,12 +12259,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A11" s="159"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="178"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
       <c r="G11" s="12" t="s">
         <v>346</v>
       </c>
@@ -12281,12 +12285,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A12" s="159"/>
-      <c r="B12" s="162"/>
+      <c r="A12" s="163"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="178"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="143"/>
@@ -12301,18 +12305,18 @@
       <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="162" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="161">
+      <c r="B13" s="165">
         <v>5</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="C13" s="186" t="s">
         <v>355</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="175"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
       <c r="G13" s="10" t="s">
         <v>353</v>
       </c>
@@ -12339,12 +12343,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A14" s="159"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="178"/>
+      <c r="A14" s="163"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="12" t="s">
         <v>346</v>
       </c>
@@ -12365,12 +12369,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A15" s="159"/>
-      <c r="B15" s="162"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="178"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="143"/>
@@ -12385,18 +12389,18 @@
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1" ht="13.8">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="162" t="s">
         <v>356</v>
       </c>
-      <c r="B16" s="161">
+      <c r="B16" s="165">
         <v>6</v>
       </c>
-      <c r="C16" s="185" t="s">
+      <c r="C16" s="186" t="s">
         <v>357</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="175"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
       <c r="G16" s="10" t="s">
         <v>353</v>
       </c>
@@ -12423,12 +12427,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A17" s="159"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="178"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="12" t="s">
         <v>360</v>
       </c>
@@ -12449,12 +12453,12 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A18" s="159"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="178"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="12" t="s">
         <v>363</v>
       </c>
@@ -12469,18 +12473,18 @@
       <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="162" t="s">
         <v>365</v>
       </c>
-      <c r="B19" s="161">
+      <c r="B19" s="165">
         <v>7</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D19" s="173"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="175"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
       <c r="G19" s="10" t="s">
         <v>353</v>
       </c>
@@ -12507,12 +12511,12 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A20" s="159"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="163"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="178"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="161"/>
       <c r="G20" s="12" t="s">
         <v>86</v>
       </c>
@@ -12533,12 +12537,12 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A21" s="159"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="178"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="161"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="143"/>
@@ -12551,10 +12555,10 @@
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A22" s="158" t="s">
+      <c r="A22" s="162" t="s">
         <v>368</v>
       </c>
-      <c r="B22" s="161">
+      <c r="B22" s="165">
         <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -12589,8 +12593,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A23" s="159"/>
-      <c r="B23" s="162"/>
+      <c r="A23" s="163"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="12"/>
       <c r="D23" s="138"/>
       <c r="E23" s="139"/>
@@ -12615,8 +12619,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A24" s="159"/>
-      <c r="B24" s="162"/>
+      <c r="A24" s="163"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="12"/>
       <c r="D24" s="138"/>
       <c r="E24" s="139"/>
@@ -12635,8 +12639,8 @@
       <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A25" s="159"/>
-      <c r="B25" s="162"/>
+      <c r="A25" s="163"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="12"/>
       <c r="D25" s="138"/>
       <c r="E25" s="139"/>
@@ -12664,7 +12668,7 @@
       <c r="G26" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="H26" s="185" t="s">
+      <c r="H26" s="186" t="s">
         <v>379</v>
       </c>
       <c r="I26" s="181" t="s">
@@ -12687,25 +12691,25 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="171" t="s">
         <v>381</v>
       </c>
-      <c r="B27" s="162">
+      <c r="B27" s="166">
         <v>9</v>
       </c>
       <c r="C27" s="106" t="s">
         <v>382</v>
       </c>
-      <c r="D27" s="176"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="178"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="H27" s="183"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="186"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
       <c r="L27" s="104" t="s">
         <v>384</v>
       </c>
@@ -12717,21 +12721,21 @@
       </c>
     </row>
     <row r="28" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A28" s="188"/>
-      <c r="B28" s="162"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="D28" s="176"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="178"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="H28" s="183"/>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
       <c r="L28" s="14" t="s">
         <v>388</v>
       </c>
@@ -12739,160 +12743,160 @@
       <c r="N28" s="106"/>
     </row>
     <row r="29" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A29" s="188"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="171"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="178"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="161"/>
       <c r="G29" s="125" t="s">
         <v>390</v>
       </c>
-      <c r="H29" s="183"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="186"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
       <c r="L29" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="M29" s="157"/>
+      <c r="M29" s="178"/>
       <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A30" s="188"/>
-      <c r="B30" s="162"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D30" s="176"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="178"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="161"/>
       <c r="G30" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="H30" s="183"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="186"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
       <c r="L30" s="104" t="s">
         <v>394</v>
       </c>
-      <c r="M30" s="189"/>
+      <c r="M30" s="188"/>
       <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A31" s="188"/>
-      <c r="B31" s="162"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="178"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="161"/>
       <c r="G31" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="H31" s="183"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="186"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
       <c r="L31" s="106"/>
       <c r="M31" s="26"/>
       <c r="N31" s="26"/>
     </row>
     <row r="32" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A32" s="188"/>
-      <c r="B32" s="162"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="D32" s="176"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="178"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="161"/>
       <c r="G32" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="H32" s="183"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
       <c r="L32" s="106"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="157"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="178"/>
     </row>
     <row r="33" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A33" s="188"/>
-      <c r="B33" s="162"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="166"/>
       <c r="C33" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="D33" s="176"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="178"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="161"/>
       <c r="G33" s="125" t="s">
         <v>400</v>
       </c>
-      <c r="H33" s="183"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
       <c r="L33" s="104"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="189"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="188"/>
     </row>
     <row r="34" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A34" s="188"/>
-      <c r="B34" s="162"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="166"/>
       <c r="C34" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D34" s="176"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="178"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="161"/>
       <c r="G34" s="125" t="s">
         <v>402</v>
       </c>
-      <c r="H34" s="183"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
       <c r="L34" s="104"/>
-      <c r="M34" s="157"/>
+      <c r="M34" s="178"/>
       <c r="N34" s="26"/>
     </row>
     <row r="35" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1" thickBot="1">
-      <c r="A35" s="188"/>
-      <c r="B35" s="162"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="166"/>
       <c r="C35" s="126" t="s">
         <v>403</v>
       </c>
-      <c r="D35" s="191"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="193"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="174"/>
       <c r="G35" s="127"/>
-      <c r="H35" s="190"/>
+      <c r="H35" s="189"/>
       <c r="I35" s="182"/>
       <c r="J35" s="182"/>
       <c r="K35" s="182"/>
       <c r="L35" s="105"/>
-      <c r="M35" s="201"/>
+      <c r="M35" s="199"/>
       <c r="N35" s="27"/>
     </row>
     <row r="36" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="162" t="s">
         <v>404</v>
       </c>
-      <c r="B36" s="161">
+      <c r="B36" s="165">
         <v>10</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="D36" s="173"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="175"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="158"/>
       <c r="G36" s="10" t="s">
         <v>353</v>
       </c>
@@ -12919,12 +12923,12 @@
       </c>
     </row>
     <row r="37" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A37" s="159"/>
-      <c r="B37" s="162"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="166"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="178"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="161"/>
       <c r="G37" s="12" t="s">
         <v>407</v>
       </c>
@@ -12941,12 +12945,12 @@
       </c>
     </row>
     <row r="38" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1" thickBot="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="162"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="177"/>
-      <c r="F38" s="178"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="161"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="143"/>
@@ -12957,18 +12961,18 @@
       <c r="N38" s="27"/>
     </row>
     <row r="39" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A39" s="158" t="s">
+      <c r="A39" s="162" t="s">
         <v>408</v>
       </c>
-      <c r="B39" s="161">
+      <c r="B39" s="165">
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D39" s="173"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="175"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="158"/>
       <c r="G39" s="10" t="s">
         <v>353</v>
       </c>
@@ -12995,12 +12999,12 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A40" s="159"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="166"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="178"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="161"/>
       <c r="G40" s="3" t="s">
         <v>411</v>
       </c>
@@ -13021,12 +13025,12 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="162"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="166"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="177"/>
-      <c r="F41" s="178"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161"/>
       <c r="G41" s="12" t="s">
         <v>413</v>
       </c>
@@ -13041,10 +13045,10 @@
       <c r="N41" s="27"/>
     </row>
     <row r="42" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A42" s="158" t="s">
+      <c r="A42" s="162" t="s">
         <v>414</v>
       </c>
-      <c r="B42" s="161">
+      <c r="B42" s="165">
         <v>12</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -13079,8 +13083,8 @@
       </c>
     </row>
     <row r="43" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A43" s="159"/>
-      <c r="B43" s="162"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="166"/>
       <c r="C43" s="12"/>
       <c r="D43" s="94"/>
       <c r="E43" s="95"/>
@@ -13105,8 +13109,8 @@
       </c>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A44" s="160"/>
-      <c r="B44" s="163"/>
+      <c r="A44" s="164"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="15"/>
       <c r="D44" s="97"/>
       <c r="E44" s="98"/>
@@ -13123,10 +13127,10 @@
       <c r="N44" s="27"/>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A45" s="158" t="s">
+      <c r="A45" s="162" t="s">
         <v>419</v>
       </c>
-      <c r="B45" s="161">
+      <c r="B45" s="165">
         <v>13</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -13161,8 +13165,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A46" s="159"/>
-      <c r="B46" s="162"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="166"/>
       <c r="C46" s="12"/>
       <c r="D46" s="94"/>
       <c r="E46" s="95"/>
@@ -13187,8 +13191,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
-      <c r="A47" s="160"/>
-      <c r="B47" s="163"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="167"/>
       <c r="C47" s="15"/>
       <c r="D47" s="97"/>
       <c r="E47" s="98"/>
@@ -13208,7 +13212,7 @@
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
       <c r="A48" s="131"/>
-      <c r="B48" s="161">
+      <c r="B48" s="165">
         <v>14</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -13220,16 +13224,16 @@
       <c r="G48" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="H48" s="185" t="s">
+      <c r="H48" s="186" t="s">
         <v>423</v>
       </c>
-      <c r="I48" s="161" t="s">
+      <c r="I48" s="165" t="s">
         <v>335</v>
       </c>
-      <c r="J48" s="161" t="s">
+      <c r="J48" s="165" t="s">
         <v>328</v>
       </c>
-      <c r="K48" s="161" t="s">
+      <c r="K48" s="165" t="s">
         <v>336</v>
       </c>
       <c r="L48" s="20" t="s">
@@ -13244,7 +13248,7 @@
     </row>
     <row r="49" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A49" s="132"/>
-      <c r="B49" s="162"/>
+      <c r="B49" s="166"/>
       <c r="C49" s="12" t="s">
         <v>382</v>
       </c>
@@ -13254,10 +13258,10 @@
       <c r="G49" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="H49" s="183"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="184"/>
-      <c r="K49" s="184"/>
+      <c r="H49" s="180"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="190"/>
+      <c r="K49" s="190"/>
       <c r="L49" s="21" t="s">
         <v>425</v>
       </c>
@@ -13270,7 +13274,7 @@
     </row>
     <row r="50" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A50" s="132"/>
-      <c r="B50" s="162"/>
+      <c r="B50" s="166"/>
       <c r="C50" s="12" t="s">
         <v>426</v>
       </c>
@@ -13283,9 +13287,9 @@
       <c r="H50" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I50" s="162"/>
-      <c r="J50" s="184"/>
-      <c r="K50" s="184"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="190"/>
+      <c r="K50" s="190"/>
       <c r="L50" s="21" t="s">
         <v>428</v>
       </c>
@@ -13294,7 +13298,7 @@
     </row>
     <row r="51" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A51" s="132"/>
-      <c r="B51" s="162"/>
+      <c r="B51" s="166"/>
       <c r="C51" s="12" t="s">
         <v>429</v>
       </c>
@@ -13307,9 +13311,9 @@
       <c r="H51" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="I51" s="162"/>
-      <c r="J51" s="184"/>
-      <c r="K51" s="184"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="190"/>
+      <c r="K51" s="190"/>
       <c r="L51" s="14" t="s">
         <v>432</v>
       </c>
@@ -13318,7 +13322,7 @@
     </row>
     <row r="52" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A52" s="132"/>
-      <c r="B52" s="162"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="12" t="s">
         <v>433</v>
       </c>
@@ -13329,9 +13333,9 @@
         <v>434</v>
       </c>
       <c r="H52" s="106"/>
-      <c r="I52" s="162"/>
-      <c r="J52" s="184"/>
-      <c r="K52" s="184"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="190"/>
+      <c r="K52" s="190"/>
       <c r="L52" s="14" t="s">
         <v>435</v>
       </c>
@@ -13342,20 +13346,20 @@
       <c r="A53" s="144" t="s">
         <v>436</v>
       </c>
-      <c r="B53" s="162"/>
+      <c r="B53" s="166"/>
       <c r="C53" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="D53" s="165"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="165"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="169"/>
+      <c r="F53" s="169"/>
       <c r="G53" s="12" t="s">
         <v>438</v>
       </c>
       <c r="H53" s="106"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="184"/>
-      <c r="K53" s="184"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="190"/>
+      <c r="K53" s="190"/>
       <c r="L53" s="14" t="s">
         <v>439</v>
       </c>
@@ -13363,21 +13367,21 @@
       <c r="N53" s="26"/>
     </row>
     <row r="54" spans="1:14" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A54" s="188"/>
-      <c r="B54" s="162"/>
+      <c r="A54" s="171"/>
+      <c r="B54" s="166"/>
       <c r="C54" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
+      <c r="D54" s="169"/>
+      <c r="E54" s="169"/>
+      <c r="F54" s="169"/>
       <c r="G54" s="12" t="s">
         <v>441</v>
       </c>
       <c r="H54" s="106"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="184"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="190"/>
+      <c r="K54" s="190"/>
       <c r="L54" s="106" t="s">
         <v>442</v>
       </c>
@@ -13385,41 +13389,41 @@
       <c r="N54" s="26"/>
     </row>
     <row r="55" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A55" s="188"/>
-      <c r="B55" s="162"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="166"/>
       <c r="C55" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
       <c r="G55" s="12" t="s">
         <v>444</v>
       </c>
       <c r="H55" s="106"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="184"/>
-      <c r="K55" s="184"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="190"/>
+      <c r="K55" s="190"/>
       <c r="L55" s="106"/>
-      <c r="M55" s="157"/>
+      <c r="M55" s="178"/>
       <c r="N55" s="26"/>
     </row>
     <row r="56" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1" thickBot="1">
       <c r="A56" s="133"/>
-      <c r="B56" s="163"/>
+      <c r="B56" s="167"/>
       <c r="C56" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="D56" s="166"/>
-      <c r="E56" s="166"/>
-      <c r="F56" s="166"/>
+      <c r="D56" s="170"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="170"/>
       <c r="G56" s="128"/>
       <c r="H56" s="128"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="202"/>
-      <c r="K56" s="202"/>
+      <c r="I56" s="167"/>
+      <c r="J56" s="200"/>
+      <c r="K56" s="200"/>
       <c r="L56" s="128"/>
-      <c r="M56" s="201"/>
+      <c r="M56" s="199"/>
       <c r="N56" s="27"/>
     </row>
     <row r="57" spans="1:14" s="3" customFormat="1" ht="16.8" customHeight="1">
@@ -13434,7 +13438,7 @@
       <c r="G57" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="H57" s="185" t="s">
+      <c r="H57" s="186" t="s">
         <v>423</v>
       </c>
       <c r="I57" s="181" t="s">
@@ -13457,10 +13461,10 @@
       </c>
     </row>
     <row r="58" spans="1:14" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A58" s="188" t="s">
+      <c r="A58" s="171" t="s">
         <v>447</v>
       </c>
-      <c r="B58" s="162">
+      <c r="B58" s="166">
         <v>15</v>
       </c>
       <c r="C58" s="12" t="s">
@@ -13472,10 +13476,10 @@
       <c r="G58" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="H58" s="183"/>
-      <c r="I58" s="186"/>
-      <c r="J58" s="186"/>
-      <c r="K58" s="186"/>
+      <c r="H58" s="180"/>
+      <c r="I58" s="185"/>
+      <c r="J58" s="185"/>
+      <c r="K58" s="185"/>
       <c r="L58" s="3" t="s">
         <v>449</v>
       </c>
@@ -13487,8 +13491,8 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A59" s="159"/>
-      <c r="B59" s="162"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="166"/>
       <c r="C59" s="12" t="s">
         <v>450</v>
       </c>
@@ -13501,16 +13505,16 @@
       <c r="H59" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I59" s="186"/>
-      <c r="J59" s="186"/>
-      <c r="K59" s="186"/>
+      <c r="I59" s="185"/>
+      <c r="J59" s="185"/>
+      <c r="K59" s="185"/>
       <c r="L59" s="21" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A60" s="159"/>
-      <c r="B60" s="162"/>
+      <c r="A60" s="163"/>
+      <c r="B60" s="166"/>
       <c r="C60" s="3" t="s">
         <v>452</v>
       </c>
@@ -13523,76 +13527,76 @@
       <c r="H60" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="I60" s="186"/>
-      <c r="J60" s="186"/>
-      <c r="K60" s="186"/>
+      <c r="I60" s="185"/>
+      <c r="J60" s="185"/>
+      <c r="K60" s="185"/>
       <c r="L60" s="102" t="s">
         <v>455</v>
       </c>
-      <c r="M60" s="157"/>
+      <c r="M60" s="178"/>
       <c r="N60" s="26"/>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A61" s="159"/>
-      <c r="B61" s="162"/>
+      <c r="A61" s="163"/>
+      <c r="B61" s="166"/>
       <c r="C61" s="12" t="s">
         <v>456</v>
       </c>
       <c r="D61" s="138"/>
       <c r="E61" s="139"/>
       <c r="F61" s="140"/>
-      <c r="G61" s="183" t="s">
+      <c r="G61" s="180" t="s">
         <v>457</v>
       </c>
-      <c r="I61" s="186"/>
-      <c r="J61" s="186"/>
-      <c r="K61" s="186"/>
+      <c r="I61" s="185"/>
+      <c r="J61" s="185"/>
+      <c r="K61" s="185"/>
       <c r="L61" s="107" t="s">
         <v>458</v>
       </c>
-      <c r="M61" s="157"/>
+      <c r="M61" s="178"/>
       <c r="N61" s="26"/>
     </row>
     <row r="62" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A62" s="159"/>
-      <c r="B62" s="162"/>
+      <c r="A62" s="163"/>
+      <c r="B62" s="166"/>
       <c r="C62" s="12" t="s">
         <v>459</v>
       </c>
       <c r="D62" s="138"/>
       <c r="E62" s="139"/>
       <c r="F62" s="140"/>
-      <c r="G62" s="183"/>
+      <c r="G62" s="180"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="186"/>
-      <c r="J62" s="186"/>
-      <c r="K62" s="186"/>
+      <c r="I62" s="185"/>
+      <c r="J62" s="185"/>
+      <c r="K62" s="185"/>
       <c r="L62" s="107" t="s">
         <v>460</v>
       </c>
-      <c r="M62" s="157"/>
+      <c r="M62" s="178"/>
       <c r="N62" s="26"/>
     </row>
     <row r="63" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A63" s="159"/>
-      <c r="B63" s="162"/>
+      <c r="A63" s="163"/>
+      <c r="B63" s="166"/>
       <c r="C63" s="12"/>
       <c r="D63" s="138"/>
       <c r="E63" s="139"/>
       <c r="F63" s="140"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="186"/>
-      <c r="J63" s="186"/>
-      <c r="K63" s="186"/>
+      <c r="I63" s="185"/>
+      <c r="J63" s="185"/>
+      <c r="K63" s="185"/>
       <c r="L63" s="107" t="s">
         <v>461</v>
       </c>
-      <c r="M63" s="157"/>
+      <c r="M63" s="178"/>
       <c r="N63" s="26"/>
     </row>
     <row r="64" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A64" s="159"/>
-      <c r="B64" s="162"/>
+      <c r="A64" s="163"/>
+      <c r="B64" s="166"/>
       <c r="C64" s="12"/>
       <c r="D64" s="138"/>
       <c r="E64" s="139"/>
@@ -13602,22 +13606,22 @@
       <c r="I64" s="182"/>
       <c r="J64" s="182"/>
       <c r="K64" s="182"/>
-      <c r="M64" s="189"/>
+      <c r="M64" s="188"/>
       <c r="N64" s="26"/>
     </row>
     <row r="65" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A65" s="158" t="s">
+      <c r="A65" s="162" t="s">
         <v>462</v>
       </c>
-      <c r="B65" s="161">
+      <c r="B65" s="165">
         <v>16</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D65" s="173"/>
-      <c r="E65" s="174"/>
-      <c r="F65" s="175"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="158"/>
       <c r="G65" s="10" t="s">
         <v>464</v>
       </c>
@@ -13636,20 +13640,20 @@
       <c r="L65" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="M65" s="156" t="s">
+      <c r="M65" s="187" t="s">
         <v>467</v>
       </c>
-      <c r="N65" s="156" t="s">
+      <c r="N65" s="187" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A66" s="159"/>
-      <c r="B66" s="162"/>
+      <c r="A66" s="163"/>
+      <c r="B66" s="166"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="176"/>
-      <c r="E66" s="177"/>
-      <c r="F66" s="178"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="161"/>
       <c r="G66" s="12" t="s">
         <v>469</v>
       </c>
@@ -13660,16 +13664,16 @@
       <c r="L66" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
+      <c r="M66" s="178"/>
+      <c r="N66" s="178"/>
     </row>
     <row r="67" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A67" s="159"/>
-      <c r="B67" s="162"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="176"/>
-      <c r="E67" s="177"/>
-      <c r="F67" s="178"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="161"/>
       <c r="G67" s="12"/>
       <c r="H67" s="66"/>
       <c r="I67" s="143"/>
@@ -13678,16 +13682,16 @@
       <c r="L67" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="M67" s="157"/>
+      <c r="M67" s="178"/>
       <c r="N67" s="26"/>
     </row>
     <row r="68" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A68" s="160"/>
-      <c r="B68" s="163"/>
+      <c r="A68" s="164"/>
+      <c r="B68" s="167"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="191"/>
-      <c r="E68" s="192"/>
-      <c r="F68" s="193"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="173"/>
+      <c r="F68" s="174"/>
       <c r="G68" s="15"/>
       <c r="H68" s="17" t="s">
         <v>350</v>
@@ -13696,14 +13700,14 @@
       <c r="J68" s="130"/>
       <c r="K68" s="130"/>
       <c r="L68" s="19"/>
-      <c r="M68" s="187"/>
+      <c r="M68" s="179"/>
       <c r="N68" s="27"/>
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A69" s="132" t="s">
         <v>472</v>
       </c>
-      <c r="B69" s="161">
+      <c r="B69" s="165">
         <v>17</v>
       </c>
       <c r="C69" s="12" t="s">
@@ -13739,7 +13743,7 @@
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A70" s="132"/>
-      <c r="B70" s="162"/>
+      <c r="B70" s="166"/>
       <c r="C70" s="12"/>
       <c r="D70" s="138"/>
       <c r="E70" s="139"/>
@@ -13761,7 +13765,7 @@
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" ht="19.2" customHeight="1" thickBot="1">
       <c r="A71" s="132"/>
-      <c r="B71" s="163"/>
+      <c r="B71" s="167"/>
       <c r="C71" s="12"/>
       <c r="D71" s="138"/>
       <c r="E71" s="139"/>
@@ -13779,7 +13783,7 @@
       <c r="A72" s="131" t="s">
         <v>476</v>
       </c>
-      <c r="B72" s="161">
+      <c r="B72" s="165">
         <v>18</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -13815,12 +13819,12 @@
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A73" s="132"/>
-      <c r="B73" s="162"/>
+      <c r="B73" s="166"/>
       <c r="C73" s="12"/>
       <c r="D73" s="138"/>
       <c r="E73" s="139"/>
       <c r="F73" s="140"/>
-      <c r="G73" s="183" t="s">
+      <c r="G73" s="180" t="s">
         <v>479</v>
       </c>
       <c r="H73" s="66" t="s">
@@ -13837,12 +13841,12 @@
     </row>
     <row r="74" spans="1:14" s="3" customFormat="1" ht="13.8">
       <c r="A74" s="132"/>
-      <c r="B74" s="162"/>
+      <c r="B74" s="166"/>
       <c r="C74" s="12"/>
       <c r="D74" s="138"/>
       <c r="E74" s="139"/>
       <c r="F74" s="140"/>
-      <c r="G74" s="183"/>
+      <c r="G74" s="180"/>
       <c r="H74" s="66"/>
       <c r="I74" s="143"/>
       <c r="J74" s="143"/>
@@ -13853,7 +13857,7 @@
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1" ht="21.6" customHeight="1" thickBot="1">
       <c r="A75" s="132"/>
-      <c r="B75" s="163"/>
+      <c r="B75" s="167"/>
       <c r="C75" s="12"/>
       <c r="D75" s="138"/>
       <c r="E75" s="139"/>
@@ -13873,7 +13877,7 @@
       <c r="A76" s="131" t="s">
         <v>482</v>
       </c>
-      <c r="B76" s="161">
+      <c r="B76" s="165">
         <v>19</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -13909,7 +13913,7 @@
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1" ht="22.2" customHeight="1" thickBot="1">
       <c r="A77" s="132"/>
-      <c r="B77" s="163"/>
+      <c r="B77" s="167"/>
       <c r="C77" s="12"/>
       <c r="D77" s="138"/>
       <c r="E77" s="139"/>
@@ -13928,18 +13932,18 @@
       </c>
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A78" s="158" t="s">
+      <c r="A78" s="162" t="s">
         <v>484</v>
       </c>
-      <c r="B78" s="161">
+      <c r="B78" s="165">
         <v>20</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D78" s="164"/>
-      <c r="E78" s="164"/>
-      <c r="F78" s="164"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
       <c r="G78" s="10" t="s">
         <v>486</v>
       </c>
@@ -13966,12 +13970,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A79" s="159"/>
-      <c r="B79" s="162"/>
+      <c r="A79" s="163"/>
+      <c r="B79" s="166"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="165"/>
-      <c r="F79" s="165"/>
+      <c r="D79" s="169"/>
+      <c r="E79" s="169"/>
+      <c r="F79" s="169"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12" t="s">
         <v>339</v>
@@ -13990,12 +13994,12 @@
       </c>
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A80" s="160"/>
-      <c r="B80" s="163"/>
+      <c r="A80" s="164"/>
+      <c r="B80" s="167"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="166"/>
-      <c r="E80" s="166"/>
-      <c r="F80" s="166"/>
+      <c r="D80" s="170"/>
+      <c r="E80" s="170"/>
+      <c r="F80" s="170"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="130"/>
@@ -14010,18 +14014,18 @@
       </c>
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A81" s="158" t="s">
+      <c r="A81" s="162" t="s">
         <v>488</v>
       </c>
-      <c r="B81" s="161">
+      <c r="B81" s="165">
         <v>21</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="D81" s="164"/>
-      <c r="E81" s="164"/>
-      <c r="F81" s="164"/>
+      <c r="D81" s="168"/>
+      <c r="E81" s="168"/>
+      <c r="F81" s="168"/>
       <c r="G81" s="12" t="s">
         <v>490</v>
       </c>
@@ -14048,12 +14052,12 @@
       </c>
     </row>
     <row r="82" spans="1:14" s="3" customFormat="1" ht="13.8">
-      <c r="A82" s="159"/>
-      <c r="B82" s="162"/>
+      <c r="A82" s="163"/>
+      <c r="B82" s="166"/>
       <c r="C82" s="12"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="169"/>
       <c r="G82" s="12" t="s">
         <v>491</v>
       </c>
@@ -14074,12 +14078,12 @@
       </c>
     </row>
     <row r="83" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A83" s="160"/>
-      <c r="B83" s="163"/>
+      <c r="A83" s="164"/>
+      <c r="B83" s="167"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="166"/>
-      <c r="E83" s="166"/>
-      <c r="F83" s="166"/>
+      <c r="D83" s="170"/>
+      <c r="E83" s="170"/>
+      <c r="F83" s="170"/>
       <c r="H83" s="15"/>
       <c r="I83" s="130"/>
       <c r="J83" s="130"/>
@@ -14093,18 +14097,18 @@
       </c>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A84" s="158" t="s">
+      <c r="A84" s="162" t="s">
         <v>462</v>
       </c>
-      <c r="B84" s="161">
+      <c r="B84" s="165">
         <v>22</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="D84" s="173"/>
-      <c r="E84" s="174"/>
-      <c r="F84" s="175"/>
+      <c r="D84" s="156"/>
+      <c r="E84" s="157"/>
+      <c r="F84" s="158"/>
       <c r="G84" s="10" t="s">
         <v>493</v>
       </c>
@@ -14123,20 +14127,20 @@
       <c r="L84" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M84" s="156" t="s">
+      <c r="M84" s="187" t="s">
         <v>467</v>
       </c>
-      <c r="N84" s="156" t="s">
+      <c r="N84" s="187" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A85" s="159"/>
-      <c r="B85" s="162"/>
+      <c r="A85" s="163"/>
+      <c r="B85" s="166"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="177"/>
-      <c r="F85" s="178"/>
+      <c r="D85" s="159"/>
+      <c r="E85" s="160"/>
+      <c r="F85" s="161"/>
       <c r="G85" s="12" t="s">
         <v>495</v>
       </c>
@@ -14147,16 +14151,16 @@
       <c r="L85" s="125" t="s">
         <v>449</v>
       </c>
-      <c r="M85" s="157"/>
-      <c r="N85" s="157"/>
+      <c r="M85" s="178"/>
+      <c r="N85" s="178"/>
     </row>
     <row r="86" spans="1:14" s="3" customFormat="1" ht="14.4" thickBot="1">
-      <c r="A86" s="159"/>
-      <c r="B86" s="162"/>
+      <c r="A86" s="163"/>
+      <c r="B86" s="166"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="177"/>
-      <c r="F86" s="178"/>
+      <c r="D86" s="159"/>
+      <c r="E86" s="160"/>
+      <c r="F86" s="161"/>
       <c r="G86" s="12" t="s">
         <v>496</v>
       </c>
@@ -14165,26 +14169,26 @@
       <c r="J86" s="143"/>
       <c r="K86" s="143"/>
       <c r="L86" s="21"/>
-      <c r="M86" s="157"/>
+      <c r="M86" s="178"/>
       <c r="N86" s="26"/>
     </row>
     <row r="87" spans="1:14" ht="16.2" customHeight="1">
-      <c r="A87" s="167" t="s">
+      <c r="A87" s="195" t="s">
         <v>497</v>
       </c>
-      <c r="B87" s="167">
+      <c r="B87" s="195">
         <v>23</v>
       </c>
-      <c r="C87" s="169" t="s">
+      <c r="C87" s="193" t="s">
         <v>497</v>
       </c>
-      <c r="D87" s="199"/>
-      <c r="E87" s="199"/>
-      <c r="F87" s="199"/>
-      <c r="G87" s="169" t="s">
+      <c r="D87" s="201"/>
+      <c r="E87" s="201"/>
+      <c r="F87" s="201"/>
+      <c r="G87" s="193" t="s">
         <v>498</v>
       </c>
-      <c r="H87" s="169" t="s">
+      <c r="H87" s="193" t="s">
         <v>465</v>
       </c>
       <c r="I87" s="181" t="s">
@@ -14196,90 +14200,60 @@
       <c r="K87" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="L87" s="179" t="s">
+      <c r="L87" s="191" t="s">
         <v>499</v>
       </c>
-      <c r="M87" s="169" t="s">
+      <c r="M87" s="193" t="s">
         <v>500</v>
       </c>
-      <c r="N87" s="169" t="s">
+      <c r="N87" s="193" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A88" s="168"/>
-      <c r="B88" s="168"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="200"/>
-      <c r="E88" s="200"/>
-      <c r="F88" s="200"/>
-      <c r="G88" s="170"/>
-      <c r="H88" s="170"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="196"/>
+      <c r="C88" s="194"/>
+      <c r="D88" s="202"/>
+      <c r="E88" s="202"/>
+      <c r="F88" s="202"/>
+      <c r="G88" s="194"/>
+      <c r="H88" s="194"/>
       <c r="I88" s="182"/>
       <c r="J88" s="182"/>
       <c r="K88" s="182"/>
-      <c r="L88" s="180"/>
-      <c r="M88" s="170"/>
-      <c r="N88" s="170"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="194"/>
+      <c r="N88" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:F21"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:F15"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:F38"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="H26:H35"/>
-    <mergeCell ref="I26:I35"/>
-    <mergeCell ref="J26:J35"/>
-    <mergeCell ref="K26:K35"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="D27:F35"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D39:F41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:F83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="D84:F86"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:F80"/>
     <mergeCell ref="A65:A68"/>
     <mergeCell ref="B65:B68"/>
     <mergeCell ref="D65:F68"/>
@@ -14302,32 +14276,62 @@
     <mergeCell ref="J48:J56"/>
     <mergeCell ref="K48:K56"/>
     <mergeCell ref="D53:F56"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:F83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="D84:F86"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:F80"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="M84:M86"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D39:F41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:F38"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="H26:H35"/>
+    <mergeCell ref="I26:I35"/>
+    <mergeCell ref="J26:J35"/>
+    <mergeCell ref="K26:K35"/>
+    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="D27:F35"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:F21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:F15"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -14356,16 +14360,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="162" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="161">
+      <c r="B1" s="165">
         <v>2</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="185" t="s">
+      <c r="D1" s="186" t="s">
         <v>138</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -14373,22 +14377,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
       <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="165">
         <v>3</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="186" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -14399,9 +14403,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="183"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="180"/>
       <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
@@ -14410,13 +14414,13 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="165">
         <v>4</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="186" t="s">
         <v>123</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -14427,9 +14431,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="183"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="12" t="s">
         <v>120</v>
       </c>
@@ -14438,13 +14442,13 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="162" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="161">
+      <c r="B7" s="165">
         <v>5</v>
       </c>
-      <c r="C7" s="185" t="s">
+      <c r="C7" s="186" t="s">
         <v>122</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -14455,9 +14459,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A8" s="159"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="183"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="180"/>
       <c r="D8" s="12" t="s">
         <v>27</v>
       </c>
@@ -14466,13 +14470,13 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="161">
+      <c r="B9" s="165">
         <v>6</v>
       </c>
-      <c r="C9" s="185" t="s">
+      <c r="C9" s="186" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -14483,9 +14487,9 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="159"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="183"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="180"/>
       <c r="D10" s="12" t="s">
         <v>78</v>
       </c>
@@ -14494,8 +14498,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A11" s="159"/>
-      <c r="B11" s="162"/>
+      <c r="A11" s="163"/>
+      <c r="B11" s="166"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
         <v>139</v>
@@ -14503,10 +14507,10 @@
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="165">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -14520,8 +14524,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A13" s="159"/>
-      <c r="B13" s="162"/>
+      <c r="A13" s="163"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12" t="s">
         <v>86</v>
@@ -14531,10 +14535,10 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="161">
+      <c r="B14" s="165">
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -14548,8 +14552,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="159"/>
-      <c r="B15" s="162"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
         <v>129</v>
@@ -14559,8 +14563,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A16" s="159"/>
-      <c r="B16" s="162"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="166"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
         <v>233</v>
@@ -14571,7 +14575,7 @@
       <c r="A17" s="203" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="161">
+      <c r="B17" s="165">
         <v>9</v>
       </c>
       <c r="C17" s="84" t="s">
@@ -14580,103 +14584,103 @@
       <c r="D17" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="185" t="s">
+      <c r="E17" s="186" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="188"/>
-      <c r="B18" s="162"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="183"/>
+      <c r="E18" s="180"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="188"/>
-      <c r="B19" s="162"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="166"/>
       <c r="C19" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="183"/>
+      <c r="E19" s="180"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="188"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="183"/>
+      <c r="E20" s="180"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="188"/>
-      <c r="B21" s="162"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="166"/>
       <c r="C21" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="183"/>
+      <c r="E21" s="180"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="188"/>
-      <c r="B22" s="162"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="166"/>
       <c r="C22" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="183"/>
+      <c r="E22" s="180"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="188"/>
-      <c r="B23" s="162"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="12" t="s">
         <v>147</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E23" s="183"/>
+      <c r="E23" s="180"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="188"/>
-      <c r="B24" s="162"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="166"/>
       <c r="C24" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="183"/>
+      <c r="E24" s="180"/>
     </row>
     <row r="25" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A25" s="188"/>
-      <c r="B25" s="162"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="183"/>
+      <c r="E25" s="180"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="161">
+      <c r="B26" s="165">
         <v>10</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -14690,8 +14694,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A27" s="159"/>
-      <c r="B27" s="162"/>
+      <c r="A27" s="163"/>
+      <c r="B27" s="166"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
         <v>157</v>
@@ -14701,10 +14705,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="161">
+      <c r="B28" s="165">
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -14718,8 +14722,8 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="159"/>
-      <c r="B29" s="162"/>
+      <c r="A29" s="163"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="12"/>
       <c r="D29" s="3" t="s">
         <v>166</v>
@@ -14729,8 +14733,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A30" s="159"/>
-      <c r="B30" s="162"/>
+      <c r="A30" s="163"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
         <v>234</v>
@@ -14738,10 +14742,10 @@
       <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="161">
+      <c r="B31" s="165">
         <v>12</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -14755,8 +14759,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A32" s="159"/>
-      <c r="B32" s="162"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="166"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
         <v>162</v>
@@ -14766,10 +14770,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="161">
+      <c r="B33" s="165">
         <v>13</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -14783,8 +14787,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="159"/>
-      <c r="B34" s="162"/>
+      <c r="A34" s="163"/>
+      <c r="B34" s="166"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
         <v>169</v>
@@ -14794,8 +14798,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A35" s="160"/>
-      <c r="B35" s="163"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
         <v>235</v>
@@ -14804,7 +14808,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="86"/>
-      <c r="B36" s="161">
+      <c r="B36" s="165">
         <v>14</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -14813,24 +14817,24 @@
       <c r="D36" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="183" t="s">
+      <c r="E36" s="180" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="86"/>
-      <c r="B37" s="162"/>
+      <c r="B37" s="166"/>
       <c r="C37" s="12" t="s">
         <v>194</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E37" s="183"/>
+      <c r="E37" s="180"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="86"/>
-      <c r="B38" s="162"/>
+      <c r="B38" s="166"/>
       <c r="C38" s="12" t="s">
         <v>174</v>
       </c>
@@ -14843,7 +14847,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="86"/>
-      <c r="B39" s="162"/>
+      <c r="B39" s="166"/>
       <c r="C39" s="12" t="s">
         <v>176</v>
       </c>
@@ -14858,7 +14862,7 @@
       <c r="A40" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="162"/>
+      <c r="B40" s="166"/>
       <c r="C40" s="12" t="s">
         <v>177</v>
       </c>
@@ -14869,7 +14873,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="86"/>
-      <c r="B41" s="162"/>
+      <c r="B41" s="166"/>
       <c r="C41" s="12" t="s">
         <v>178</v>
       </c>
@@ -14880,7 +14884,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="86"/>
-      <c r="B42" s="162"/>
+      <c r="B42" s="166"/>
       <c r="C42" s="12" t="s">
         <v>179</v>
       </c>
@@ -14901,10 +14905,10 @@
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="158" t="s">
+      <c r="A44" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="161">
+      <c r="B44" s="165">
         <v>15</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -14913,24 +14917,24 @@
       <c r="D44" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="185" t="s">
+      <c r="E44" s="186" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="159"/>
-      <c r="B45" s="162"/>
+      <c r="A45" s="163"/>
+      <c r="B45" s="166"/>
       <c r="C45" s="12" t="s">
         <v>195</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="183"/>
+      <c r="E45" s="180"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="159"/>
-      <c r="B46" s="162"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="166"/>
       <c r="C46" s="3" t="s">
         <v>200</v>
       </c>
@@ -14942,8 +14946,8 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="159"/>
-      <c r="B47" s="162"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="166"/>
       <c r="C47" s="12" t="s">
         <v>201</v>
       </c>
@@ -14955,8 +14959,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A48" s="159"/>
-      <c r="B48" s="162"/>
+      <c r="A48" s="163"/>
+      <c r="B48" s="166"/>
       <c r="C48" s="12" t="s">
         <v>202</v>
       </c>
@@ -14969,7 +14973,7 @@
       <c r="A49" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="161">
+      <c r="B49" s="165">
         <v>17</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -14984,7 +14988,7 @@
     </row>
     <row r="50" spans="1:5" ht="16.8" thickBot="1">
       <c r="A50" s="87"/>
-      <c r="B50" s="163"/>
+      <c r="B50" s="167"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
         <v>99</v>
@@ -14997,7 +15001,7 @@
       <c r="A51" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="161">
+      <c r="B51" s="165">
         <v>18</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -15012,7 +15016,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="86"/>
-      <c r="B52" s="162"/>
+      <c r="B52" s="166"/>
       <c r="C52" s="12"/>
       <c r="D52" s="89" t="s">
         <v>216</v>
@@ -15023,7 +15027,7 @@
     </row>
     <row r="53" spans="1:5" ht="16.8" thickBot="1">
       <c r="A53" s="86"/>
-      <c r="B53" s="163"/>
+      <c r="B53" s="167"/>
       <c r="C53" s="12"/>
       <c r="D53" s="15" t="s">
         <v>217</v>
@@ -15034,7 +15038,7 @@
       <c r="A54" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="161">
+      <c r="B54" s="165">
         <v>19</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -15049,7 +15053,7 @@
     </row>
     <row r="55" spans="1:5" ht="16.8" thickBot="1">
       <c r="A55" s="86"/>
-      <c r="B55" s="163"/>
+      <c r="B55" s="167"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="66" t="s">
@@ -15057,10 +15061,10 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="158" t="s">
+      <c r="A56" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="161">
+      <c r="B56" s="165">
         <v>20</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -15074,8 +15078,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="159"/>
-      <c r="B57" s="162"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="166"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12" t="s">
         <v>219</v>
@@ -15085,8 +15089,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.8" thickBot="1">
-      <c r="A58" s="160"/>
-      <c r="B58" s="163"/>
+      <c r="A58" s="164"/>
+      <c r="B58" s="167"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
         <v>220</v>
@@ -15116,40 +15120,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -15157,6 +15127,40 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
